--- a/form4/grs_atualizado_form4.xlsx
+++ b/form4/grs_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36734,8 +36734,8 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -37554,8 +37554,16 @@
           <t>Thiago Varaschim Cenci</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>22/04/2025, 23/04/2025</t>
+        </is>
+      </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>

--- a/form4/grs_atualizado_form4.xlsx
+++ b/form4/grs_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form4/grs_atualizado_form4.xlsx
+++ b/form4/grs_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,7 +579,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="39" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="226" customWidth="1" min="8" max="8"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>24/03/2025, 26/02/2025</t>
+          <t>26/02/2025, 24/03/2025</t>
         </is>
       </c>
       <c r="G34" s="7" t="inlineStr">
@@ -2674,14 +2674,14 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>25/02/2025</t>
+          <t>29/04/2025, 25/02/2025</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="E51" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>25/02/2025, 26/02/2025</t>
+          <t>26/02/2025, 25/02/2025</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E59" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E61" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E62" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E67" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
@@ -15822,8 +15822,10 @@
           <t>Anahy</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
@@ -15857,8 +15859,10 @@
           <t>Cafelândia</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
@@ -15877,7 +15881,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -15892,8 +15896,10 @@
           <t>Cafelândia</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -15912,7 +15918,7 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -15927,8 +15933,10 @@
           <t>Cafelândia</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
@@ -15947,7 +15955,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -15962,8 +15970,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
@@ -15977,12 +15987,12 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>07/01/2025</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -15997,8 +16007,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>3</v>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
@@ -16012,12 +16024,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16032,8 +16044,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
@@ -16047,7 +16061,7 @@
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -16067,8 +16081,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>5</v>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
@@ -16087,7 +16103,7 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16102,8 +16118,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>5</v>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
@@ -16117,12 +16135,12 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16137,8 +16155,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>4</v>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
@@ -16152,12 +16172,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16172,8 +16192,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>4</v>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
@@ -16187,7 +16209,7 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
@@ -16207,8 +16229,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>4</v>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
@@ -16222,12 +16246,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16242,8 +16266,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>3</v>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
@@ -16262,7 +16288,7 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16277,8 +16303,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>2</v>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
@@ -16297,7 +16325,7 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16312,8 +16340,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C16" s="3" t="n">
-        <v>2</v>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
@@ -16327,7 +16357,7 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
@@ -16347,8 +16377,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>2</v>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
@@ -16362,7 +16394,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -16382,8 +16414,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>1</v>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
@@ -16397,7 +16431,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -16417,8 +16451,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>6</v>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
@@ -16437,7 +16473,7 @@
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16452,8 +16488,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>6</v>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
@@ -16487,8 +16525,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>6</v>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
@@ -16502,12 +16542,12 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16522,8 +16562,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>5</v>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
@@ -16542,7 +16584,7 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16557,8 +16599,10 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>3</v>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
@@ -16572,7 +16616,7 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
@@ -16592,8 +16636,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>3</v>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
@@ -16612,7 +16658,7 @@
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16627,8 +16673,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>8</v>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
@@ -16642,12 +16690,12 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16662,8 +16710,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C26" s="3" t="n">
-        <v>8</v>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
@@ -16677,12 +16727,12 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16697,8 +16747,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C27" s="3" t="n">
-        <v>8</v>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
@@ -16712,12 +16764,12 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16732,8 +16784,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C28" s="3" t="n">
-        <v>7</v>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
@@ -16747,12 +16801,12 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16767,8 +16821,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C29" s="3" t="n">
-        <v>7</v>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
@@ -16782,12 +16838,12 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16802,8 +16858,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C30" s="3" t="n">
-        <v>7</v>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
@@ -16817,7 +16875,7 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
@@ -16837,8 +16895,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>6</v>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
@@ -16852,12 +16912,12 @@
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16872,8 +16932,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C32" s="3" t="n">
-        <v>6</v>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
@@ -16887,12 +16949,12 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16907,8 +16969,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C33" s="3" t="n">
-        <v>6</v>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
@@ -16942,8 +17006,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C34" s="3" t="n">
-        <v>5</v>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
@@ -16962,7 +17028,7 @@
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16977,8 +17043,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C35" s="3" t="n">
-        <v>5</v>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
@@ -16997,7 +17065,7 @@
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17012,8 +17080,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C36" s="3" t="n">
-        <v>5</v>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
@@ -17047,8 +17117,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C37" s="3" t="n">
-        <v>4</v>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
@@ -17062,12 +17134,12 @@
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17082,8 +17154,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C38" s="3" t="n">
-        <v>4</v>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
@@ -17097,12 +17171,12 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17117,8 +17191,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C39" s="3" t="n">
-        <v>2</v>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
@@ -17132,12 +17208,12 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17152,8 +17228,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C40" s="3" t="n">
-        <v>4</v>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
@@ -17167,12 +17245,12 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17187,8 +17265,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C41" s="3" t="n">
-        <v>3</v>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
@@ -17202,7 +17282,7 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
@@ -17222,8 +17302,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C42" s="3" t="n">
-        <v>2</v>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
@@ -17237,12 +17319,12 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17257,8 +17339,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C43" s="3" t="n">
-        <v>2</v>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
@@ -17272,12 +17356,12 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17292,8 +17376,10 @@
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="C44" s="3" t="n">
-        <v>3</v>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
@@ -17307,12 +17393,12 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17327,8 +17413,10 @@
           <t>Francisco Alves</t>
         </is>
       </c>
-      <c r="C45" s="3" t="n">
-        <v>1</v>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
@@ -17347,7 +17435,7 @@
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17362,8 +17450,10 @@
           <t>Francisco Alves</t>
         </is>
       </c>
-      <c r="C46" s="3" t="n">
-        <v>1</v>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
@@ -17382,7 +17472,7 @@
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17397,8 +17487,10 @@
           <t>Francisco Alves</t>
         </is>
       </c>
-      <c r="C47" s="3" t="n">
-        <v>1</v>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
@@ -17417,7 +17509,7 @@
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17432,8 +17524,10 @@
           <t>Guaíra</t>
         </is>
       </c>
-      <c r="C48" s="3" t="n">
-        <v>1</v>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
@@ -17452,7 +17546,7 @@
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17467,8 +17561,10 @@
           <t>Guaíra</t>
         </is>
       </c>
-      <c r="C49" s="3" t="n">
-        <v>1</v>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
@@ -17487,7 +17583,7 @@
       </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17502,8 +17598,10 @@
           <t>Guaíra</t>
         </is>
       </c>
-      <c r="C50" s="3" t="n">
-        <v>1</v>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
@@ -17522,7 +17620,7 @@
       </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17537,8 +17635,10 @@
           <t>Jesuítas</t>
         </is>
       </c>
-      <c r="C51" s="3" t="n">
-        <v>1</v>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
@@ -17557,7 +17657,7 @@
       </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17572,8 +17672,10 @@
           <t>Jesuítas</t>
         </is>
       </c>
-      <c r="C52" s="3" t="n">
-        <v>1</v>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
@@ -17607,8 +17709,10 @@
           <t>Jesuítas</t>
         </is>
       </c>
-      <c r="C53" s="3" t="n">
-        <v>1</v>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
@@ -17627,7 +17731,7 @@
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17642,8 +17746,10 @@
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="C54" s="3" t="n">
-        <v>2</v>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
@@ -17657,12 +17763,12 @@
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17677,8 +17783,10 @@
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="C55" s="3" t="n">
-        <v>1</v>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
@@ -17692,12 +17800,12 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17712,8 +17820,10 @@
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="C56" s="3" t="n">
-        <v>1</v>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
@@ -17727,12 +17837,12 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17747,8 +17857,10 @@
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="C57" s="3" t="n">
-        <v>1</v>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
@@ -17762,12 +17874,12 @@
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17782,8 +17894,10 @@
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="C58" s="3" t="n">
-        <v>2</v>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
@@ -17797,12 +17911,12 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17817,8 +17931,10 @@
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="C59" s="3" t="n">
-        <v>2</v>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
@@ -17832,12 +17948,12 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17852,8 +17968,10 @@
           <t>Maripá</t>
         </is>
       </c>
-      <c r="C60" s="3" t="n">
-        <v>1</v>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
@@ -17887,8 +18005,10 @@
           <t>Maripá</t>
         </is>
       </c>
-      <c r="C61" s="3" t="n">
-        <v>1</v>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
@@ -17907,7 +18027,7 @@
       </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t>07.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17922,8 +18042,10 @@
           <t>Maripá</t>
         </is>
       </c>
-      <c r="C62" s="3" t="n">
-        <v>1</v>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
@@ -17942,7 +18064,7 @@
       </c>
       <c r="G62" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>07.24</t>
         </is>
       </c>
     </row>
@@ -17957,8 +18079,10 @@
           <t>Maripá</t>
         </is>
       </c>
-      <c r="C63" s="3" t="n">
-        <v>1</v>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
@@ -17977,7 +18101,7 @@
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17992,8 +18116,10 @@
           <t>Matelândia</t>
         </is>
       </c>
-      <c r="C64" s="3" t="n">
-        <v>1</v>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
@@ -18027,8 +18153,10 @@
           <t>Matelândia</t>
         </is>
       </c>
-      <c r="C65" s="3" t="n">
-        <v>1</v>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
@@ -18047,7 +18175,7 @@
       </c>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18062,8 +18190,10 @@
           <t>Matelândia</t>
         </is>
       </c>
-      <c r="C66" s="3" t="n">
-        <v>1</v>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
@@ -18082,7 +18212,7 @@
       </c>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18097,8 +18227,10 @@
           <t>Medianeira</t>
         </is>
       </c>
-      <c r="C67" s="3" t="n">
-        <v>1</v>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
@@ -18117,7 +18249,7 @@
       </c>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18132,8 +18264,10 @@
           <t>Medianeira</t>
         </is>
       </c>
-      <c r="C68" s="3" t="n">
-        <v>1</v>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
@@ -18152,7 +18286,7 @@
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18167,8 +18301,10 @@
           <t>Medianeira</t>
         </is>
       </c>
-      <c r="C69" s="3" t="n">
-        <v>1</v>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
@@ -18187,7 +18323,7 @@
       </c>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18202,12 +18338,14 @@
           <t>Mercedes</t>
         </is>
       </c>
-      <c r="C70" s="3" t="n">
-        <v>1</v>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>Roberto Pedron</t>
+          <t>Uso específico, não abuse</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
@@ -18217,12 +18355,12 @@
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>03.05</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18237,8 +18375,10 @@
           <t>Mercedes</t>
         </is>
       </c>
-      <c r="C71" s="3" t="n">
-        <v>1</v>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
@@ -18257,7 +18397,7 @@
       </c>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18272,8 +18412,10 @@
           <t>Mercedes</t>
         </is>
       </c>
-      <c r="C72" s="3" t="n">
-        <v>1</v>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
@@ -18292,7 +18434,7 @@
       </c>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18307,12 +18449,14 @@
           <t>Mercedes</t>
         </is>
       </c>
-      <c r="C73" s="3" t="n">
-        <v>1</v>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>Uso específico, não abuse</t>
+          <t>Roberto Pedron</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
@@ -18322,12 +18466,12 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>03.05</t>
         </is>
       </c>
     </row>
@@ -18342,8 +18486,10 @@
           <t>Missal</t>
         </is>
       </c>
-      <c r="C74" s="3" t="n">
-        <v>1</v>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
@@ -18357,12 +18503,12 @@
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18377,8 +18523,10 @@
           <t>Missal</t>
         </is>
       </c>
-      <c r="C75" s="3" t="n">
-        <v>1</v>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
@@ -18392,12 +18540,12 @@
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18412,8 +18560,10 @@
           <t>Missal</t>
         </is>
       </c>
-      <c r="C76" s="3" t="n">
-        <v>1</v>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
@@ -18447,8 +18597,10 @@
           <t>Nova Santa Rosa</t>
         </is>
       </c>
-      <c r="C77" s="3" t="n">
-        <v>1</v>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
@@ -18467,7 +18619,7 @@
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18482,8 +18634,10 @@
           <t>Nova Santa Rosa</t>
         </is>
       </c>
-      <c r="C78" s="3" t="n">
-        <v>1</v>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
@@ -18502,7 +18656,7 @@
       </c>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18517,8 +18671,10 @@
           <t>Nova Santa Rosa</t>
         </is>
       </c>
-      <c r="C79" s="3" t="n">
-        <v>1</v>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
@@ -18537,7 +18693,7 @@
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18552,8 +18708,10 @@
           <t>Ouro Verde do Oeste</t>
         </is>
       </c>
-      <c r="C80" s="3" t="n">
-        <v>1</v>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
@@ -18572,7 +18730,7 @@
       </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18587,8 +18745,10 @@
           <t>Ouro Verde do Oeste</t>
         </is>
       </c>
-      <c r="C81" s="3" t="n">
-        <v>1</v>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
@@ -18607,7 +18767,7 @@
       </c>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18622,8 +18782,10 @@
           <t>Ouro Verde do Oeste</t>
         </is>
       </c>
-      <c r="C82" s="3" t="n">
-        <v>1</v>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
@@ -18642,7 +18804,7 @@
       </c>
       <c r="G82" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18657,8 +18819,10 @@
           <t>Palotina</t>
         </is>
       </c>
-      <c r="C83" s="3" t="n">
-        <v>1</v>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
@@ -18677,7 +18841,7 @@
       </c>
       <c r="G83" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18692,8 +18856,10 @@
           <t>Palotina</t>
         </is>
       </c>
-      <c r="C84" s="3" t="n">
-        <v>1</v>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
@@ -18712,7 +18878,7 @@
       </c>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18727,8 +18893,10 @@
           <t>Palotina</t>
         </is>
       </c>
-      <c r="C85" s="3" t="n">
-        <v>1</v>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
@@ -18747,7 +18915,7 @@
       </c>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18762,8 +18930,10 @@
           <t>Palotina</t>
         </is>
       </c>
-      <c r="C86" s="3" t="n">
-        <v>1</v>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
@@ -18797,8 +18967,10 @@
           <t>Quatro Pontes</t>
         </is>
       </c>
-      <c r="C87" s="3" t="n">
-        <v>1</v>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
@@ -18817,7 +18989,7 @@
       </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18832,8 +19004,10 @@
           <t>Quatro Pontes</t>
         </is>
       </c>
-      <c r="C88" s="3" t="n">
-        <v>1</v>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
@@ -18867,8 +19041,10 @@
           <t>Quatro Pontes</t>
         </is>
       </c>
-      <c r="C89" s="3" t="n">
-        <v>1</v>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
@@ -18887,7 +19063,7 @@
       </c>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18902,8 +19078,10 @@
           <t>Ramilândia</t>
         </is>
       </c>
-      <c r="C90" s="3" t="n">
-        <v>1</v>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
@@ -18922,7 +19100,7 @@
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18937,8 +19115,10 @@
           <t>Ramilândia</t>
         </is>
       </c>
-      <c r="C91" s="3" t="n">
-        <v>1</v>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
@@ -18957,7 +19137,7 @@
       </c>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18972,8 +19152,10 @@
           <t>Ramilândia</t>
         </is>
       </c>
-      <c r="C92" s="3" t="n">
-        <v>1</v>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
@@ -18992,7 +19174,7 @@
       </c>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19007,8 +19189,10 @@
           <t>Santa Helena</t>
         </is>
       </c>
-      <c r="C93" s="3" t="n">
-        <v>1</v>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
@@ -19042,8 +19226,10 @@
           <t>Santa Helena</t>
         </is>
       </c>
-      <c r="C94" s="3" t="n">
-        <v>1</v>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
@@ -19062,7 +19248,7 @@
       </c>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19077,8 +19263,10 @@
           <t>Santa Helena</t>
         </is>
       </c>
-      <c r="C95" s="3" t="n">
-        <v>1</v>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
@@ -19097,7 +19285,7 @@
       </c>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19112,8 +19300,10 @@
           <t>Santa Terezinha de Itaipu</t>
         </is>
       </c>
-      <c r="C96" s="3" t="n">
-        <v>1</v>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
@@ -19132,7 +19322,7 @@
       </c>
       <c r="G96" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19147,8 +19337,10 @@
           <t>Santa Terezinha de Itaipu</t>
         </is>
       </c>
-      <c r="C97" s="3" t="n">
-        <v>1</v>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
@@ -19167,7 +19359,7 @@
       </c>
       <c r="G97" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19182,8 +19374,10 @@
           <t>Santa Terezinha de Itaipu</t>
         </is>
       </c>
-      <c r="C98" s="3" t="n">
-        <v>1</v>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
@@ -19202,7 +19396,7 @@
       </c>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19217,8 +19411,10 @@
           <t>São José das Palmeiras</t>
         </is>
       </c>
-      <c r="C99" s="3" t="n">
-        <v>1</v>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
@@ -19237,7 +19433,7 @@
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19252,8 +19448,10 @@
           <t>São José das Palmeiras</t>
         </is>
       </c>
-      <c r="C100" s="3" t="n">
-        <v>1</v>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
@@ -19287,8 +19485,10 @@
           <t>São José das Palmeiras</t>
         </is>
       </c>
-      <c r="C101" s="3" t="n">
-        <v>1</v>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
@@ -19307,7 +19507,7 @@
       </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19322,8 +19522,10 @@
           <t>São Miguel do Iguaçu</t>
         </is>
       </c>
-      <c r="C102" s="3" t="n">
-        <v>1</v>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
@@ -19342,7 +19544,7 @@
       </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19357,8 +19559,10 @@
           <t>São Miguel do Iguaçu</t>
         </is>
       </c>
-      <c r="C103" s="3" t="n">
-        <v>1</v>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
@@ -19377,7 +19581,7 @@
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19392,8 +19596,10 @@
           <t>São Pedro do Iguaçu</t>
         </is>
       </c>
-      <c r="C104" s="3" t="n">
-        <v>1</v>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
@@ -19407,12 +19613,12 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19427,8 +19633,10 @@
           <t>São Pedro do Iguaçu</t>
         </is>
       </c>
-      <c r="C105" s="3" t="n">
-        <v>1</v>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
@@ -19442,12 +19650,12 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19462,8 +19670,10 @@
           <t>Serranópolis do Iguaçu</t>
         </is>
       </c>
-      <c r="C106" s="3" t="n">
-        <v>1</v>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
@@ -19482,7 +19692,7 @@
       </c>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19497,8 +19707,10 @@
           <t>Serranópolis do Iguaçu</t>
         </is>
       </c>
-      <c r="C107" s="3" t="n">
-        <v>1</v>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
@@ -19512,12 +19724,12 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19532,8 +19744,10 @@
           <t>Serranópolis do Iguaçu</t>
         </is>
       </c>
-      <c r="C108" s="3" t="n">
-        <v>1</v>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
@@ -19547,12 +19761,12 @@
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19567,8 +19781,10 @@
           <t>Terra Roxa</t>
         </is>
       </c>
-      <c r="C109" s="3" t="n">
-        <v>1</v>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
@@ -19587,7 +19803,7 @@
       </c>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19602,8 +19818,10 @@
           <t>Terra Roxa</t>
         </is>
       </c>
-      <c r="C110" s="3" t="n">
-        <v>1</v>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
@@ -19622,7 +19840,7 @@
       </c>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19637,8 +19855,10 @@
           <t>Terra Roxa</t>
         </is>
       </c>
-      <c r="C111" s="3" t="n">
-        <v>1</v>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
@@ -19657,7 +19877,7 @@
       </c>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19672,8 +19892,10 @@
           <t>Tupãssi</t>
         </is>
       </c>
-      <c r="C112" s="3" t="n">
-        <v>1</v>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
@@ -19707,8 +19929,10 @@
           <t>Tupãssi</t>
         </is>
       </c>
-      <c r="C113" s="3" t="n">
-        <v>1</v>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
@@ -19742,8 +19966,10 @@
           <t>Tupãssi</t>
         </is>
       </c>
-      <c r="C114" s="3" t="n">
-        <v>1</v>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
@@ -19789,7 +20015,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="304" customWidth="1" min="8" max="8"/>
@@ -21102,12 +21328,12 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>17/03/2025, 20/03/2025</t>
+          <t>20/03/2025, 17/03/2025</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
@@ -25697,7 +25923,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="392" customWidth="1" min="8" max="8"/>
@@ -27131,12 +27357,12 @@
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>13/03/2025, 14/04/2025</t>
+          <t>14/04/2025, 13/03/2025</t>
         </is>
       </c>
       <c r="G33" s="7" t="inlineStr">
@@ -27185,12 +27411,12 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>02/04/2025, 01/04/2025</t>
+          <t>01/04/2025, 02/04/2025</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
@@ -27316,12 +27542,16 @@
           <t>Tatiana schrard</t>
         </is>
       </c>
-      <c r="E37" s="10" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="n"/>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -27988,12 +28218,16 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="10" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -28684,7 +28918,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -28894,12 +29128,16 @@
           <t>Marcos Gabriel Franciosi Borges</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -30084,7 +30322,7 @@
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -30918,12 +31156,16 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="10" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -31129,12 +31371,16 @@
           <t>Taiane Amélia Mondardo</t>
         </is>
       </c>
-      <c r="E58" s="10" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F58" s="3" t="n"/>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G58" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -31342,7 +31588,7 @@
       </c>
       <c r="E63" s="8" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
@@ -31913,12 +32159,16 @@
           <t>Cristiane Petry Vieira</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="n"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -31991,12 +32241,16 @@
           <t>Tatiane Girardi</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="n"/>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32030,12 +32284,16 @@
           <t>Lucas Fenerick Biondi</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32069,12 +32327,16 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E12" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32225,12 +32487,16 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n"/>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32264,12 +32530,16 @@
           <t>Cristina Harumi Enokida</t>
         </is>
       </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n"/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32303,12 +32573,16 @@
           <t>Douglas de Mattia / Alvaro Rodrigues</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n"/>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32420,12 +32694,16 @@
           <t>Keilla Avezedo</t>
         </is>
       </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n"/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32537,12 +32815,16 @@
           <t>Andrea Carla Winkelmann</t>
         </is>
       </c>
-      <c r="E24" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="n"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32576,12 +32858,16 @@
           <t>Lorizete de Andrade</t>
         </is>
       </c>
-      <c r="E25" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="n"/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32654,12 +32940,16 @@
           <t>Lucas Correia de Souza</t>
         </is>
       </c>
-      <c r="E27" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="n"/>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32849,12 +33139,16 @@
           <t>Marlene R. Oliveira Dallacosta</t>
         </is>
       </c>
-      <c r="E32" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="n"/>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -32888,12 +33182,16 @@
           <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
-      <c r="E33" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="n"/>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33005,12 +33303,16 @@
           <t>Eliane Borin</t>
         </is>
       </c>
-      <c r="E36" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="n"/>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33278,12 +33580,16 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E43" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33317,12 +33623,16 @@
           <t>Natielly Pereira Ochoa</t>
         </is>
       </c>
-      <c r="E44" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="n"/>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33395,12 +33705,16 @@
           <t>Luciane Spies</t>
         </is>
       </c>
-      <c r="E46" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F46" s="3" t="n"/>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33551,12 +33865,16 @@
           <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
         </is>
       </c>
-      <c r="E50" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="n"/>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33590,12 +33908,16 @@
           <t>Dorival Manoel Canhete</t>
         </is>
       </c>
-      <c r="E51" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="n"/>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33629,12 +33951,16 @@
           <t>Jaqueline Vanelli</t>
         </is>
       </c>
-      <c r="E52" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="n"/>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33785,12 +34111,16 @@
           <t>Marina Ancelmo da Silva</t>
         </is>
       </c>
-      <c r="E56" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="n"/>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33902,12 +34232,16 @@
           <t>Adnan navarro de freitas kassim</t>
         </is>
       </c>
-      <c r="E59" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="n"/>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
       <c r="G59" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -33941,12 +34275,16 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F60" s="3" t="n"/>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -34019,12 +34357,16 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n"/>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -34058,12 +34400,16 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E63" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="n"/>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G63" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -34136,12 +34482,16 @@
           <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
-      <c r="E65" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="n"/>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G65" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -34175,12 +34525,16 @@
           <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
-      <c r="E66" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F66" s="3" t="n"/>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G66" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -34420,8 +34774,16 @@
           <t>Willian de Oliveira Lino</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -34805,8 +35167,16 @@
           <t>Mauricio Pinto de Lima</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -36734,8 +37104,8 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -37554,16 +37924,8 @@
           <t>Thiago Varaschim Cenci</t>
         </is>
       </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>Envio Duplicado</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>22/04/2025, 23/04/2025</t>
-        </is>
-      </c>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
       <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>
